--- a/biology/Botanique/Sansevieria_arborescens/Sansevieria_arborescens.xlsx
+++ b/biology/Botanique/Sansevieria_arborescens/Sansevieria_arborescens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sansevieria arborescens, également appelée Dracaena arborescens[1], est une espèce de plantes de la famille des Liliaceae et du genre Sansevieria. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sansevieria arborescens, également appelée Dracaena arborescens, est une espèce de plantes de la famille des Liliaceae et du genre Sansevieria. 
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plante succulente, Sansevieria arborescens est une espèce de sansevières de courtes et moyennes feuilles (15 à 22 cm de longueur et 3 à 6 cm de largeur), assez épaisses (6 mm) et lisses, avec un léger sillon central, de couleur vert-clair avec des bords brunâtres à rougeâtres[2],[3]. Elles poussent directement depuis leur rhyzome caulescent, de 2 cm de diamètre, qui forme une pseudo-tige pouvant atteindre 150 cm, avec les feuilles disposées en spirales autour d'elle. Les inflorescences mesurent jusqu'à 50 cm de longueur, sont paniculées avec trois à quatre fleurs[3].
-Découverte à la fin du XIXe siècle par le botaniste français Marie Maxime Cornu, elle a été formellement identifiée comme espèce à part entière en 1903 par les botanistes français Joseph Gérôme et Oscar Labroy[4].
-L'espèce a été fréquemment et longtemps confondue avec Sansevieria bagamoyensis, Sansevieria dumetescens et surtout Sansevieria ascendens[3]. Par aileurs, Sansevieria powellii est possiblement un hybride entre Sansevieria arborescens et Sansevieria robusta[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante succulente, Sansevieria arborescens est une espèce de sansevières de courtes et moyennes feuilles (15 à 22 cm de longueur et 3 à 6 cm de largeur), assez épaisses (6 mm) et lisses, avec un léger sillon central, de couleur vert-clair avec des bords brunâtres à rougeâtres,. Elles poussent directement depuis leur rhyzome caulescent, de 2 cm de diamètre, qui forme une pseudo-tige pouvant atteindre 150 cm, avec les feuilles disposées en spirales autour d'elle. Les inflorescences mesurent jusqu'à 50 cm de longueur, sont paniculées avec trois à quatre fleurs.
+Découverte à la fin du XIXe siècle par le botaniste français Marie Maxime Cornu, elle a été formellement identifiée comme espèce à part entière en 1903 par les botanistes français Joseph Gérôme et Oscar Labroy.
+L'espèce a été fréquemment et longtemps confondue avec Sansevieria bagamoyensis, Sansevieria dumetescens et surtout Sansevieria ascendens. Par aileurs, Sansevieria powellii est possiblement un hybride entre Sansevieria arborescens et Sansevieria robusta.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est originaire de l'Afrique de l'Est, présente au sud-est du Kenya et à l'est de la Tanzanie où elle a été identifiée. Elle pousse dans les forêts côtières persistantes et dans la brousse non aride, entre 0 et 600 m d'altitude[2],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est originaire de l'Afrique de l'Est, présente au sud-est du Kenya et à l'est de la Tanzanie où elle a été identifiée. Elle pousse dans les forêts côtières persistantes et dans la brousse non aride, entre 0 et 600 m d'altitude,.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L'espèce présente des synonymes[6],[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'espèce présente des synonymes, :
 Sansevieria zanzibarica (Gérôme &amp; Labroy, 1903)
 Dracaena arborescens (Cornu, ex Gérôme &amp; Labroy, 1903 ; Byng &amp; Christenh., 2018)</t>
         </is>
